--- a/9-脚本自动化/2-代码/新建文件夹/PaperAccount_reord_table.xlsx
+++ b/9-脚本自动化/2-代码/新建文件夹/PaperAccount_reord_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="22357" windowHeight="10680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="papertest3" sheetId="1" r:id="rId1"/>
@@ -1760,9 +1760,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1775,14 +1775,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1796,23 +1834,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1827,46 +1863,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1882,37 +1879,40 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1927,7 +1927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,31 +1951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,7 +1975,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,7 +2047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,7 +2065,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,7 +2089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,85 +2101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2118,80 +2118,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2218,6 +2144,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2226,10 +2226,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2238,133 +2238,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2445,7 +2445,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2734,13 +2734,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6283185840708" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.3716814159292" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3716814159292" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1238938053097" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3716814159292" style="1" customWidth="1"/>
     <col min="8" max="8" width="36" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5044247787611" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6329,13 +6329,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6283185840708" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.3716814159292" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3716814159292" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1238938053097" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3716814159292" style="1" customWidth="1"/>
     <col min="8" max="8" width="36" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5044247787611" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8873,21 +8873,21 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6283185840708" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.3716814159292" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3716814159292" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1238938053097" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.3716814159292" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3716814159292" style="1" customWidth="1"/>
     <col min="8" max="8" width="36" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5044247787611" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10775,7 +10775,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -10802,6 +10802,10 @@
       </c>
       <c r="I66" t="s">
         <v>404</v>
+      </c>
+      <c r="J66">
+        <f>(F67-F66)*50</f>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -10833,7 +10837,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -10860,6 +10864,10 @@
       </c>
       <c r="I68" t="s">
         <v>404</v>
+      </c>
+      <c r="J68">
+        <f>(F69-F68)*40</f>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:9">
